--- a/resources/kbord_bom.xlsx
+++ b/resources/kbord_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="142">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -316,6 +316,9 @@
     <t xml:space="preserve">Momentary Switch (Pushbutton)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/store/product/20pcs-Gateron-RGB-Switches-MX-for-DIY-Mechanical-Gaming-Keyboard/914660_32709013852.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">S2</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.mouser.co.uk/ProductDetail/Hirose-Connector/ZX62D-B-5PA830/?qs=sGAEpiMZZMulM8LPOQ%252byk6r3VmhUEyMLT8hu1C1GYL85FtczwhvFwQ%3d%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided links are for examples only, you dont have to buy from them</t>
   </si>
   <si>
     <t xml:space="preserve">rest of them can be easily found on mouser</t>
@@ -450,11 +456,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -472,46 +479,92 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -612,29 +665,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,15 +822,15 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F84" activeCellId="0" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="82.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="158.43"/>
@@ -1685,10 +1774,13 @@
       <c r="E55" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>95</v>
@@ -1705,7 +1797,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>95</v>
@@ -1722,7 +1814,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>95</v>
@@ -1739,7 +1831,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>95</v>
@@ -1756,7 +1848,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>95</v>
@@ -1773,7 +1865,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>95</v>
@@ -1790,7 +1882,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>95</v>
@@ -1807,7 +1899,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>95</v>
@@ -1824,7 +1916,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>95</v>
@@ -1841,7 +1933,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>95</v>
@@ -1858,7 +1950,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>95</v>
@@ -1875,7 +1967,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>95</v>
@@ -1892,7 +1984,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>95</v>
@@ -1909,7 +2001,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>95</v>
@@ -1926,175 +2018,183 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F55" r:id="rId1" display="https://www.aliexpress.com/store/product/20pcs-Gateron-RGB-Switches-MX-for-DIY-Mechanical-Gaming-Keyboard/914660_32709013852.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
